--- a/Data/labeled_data/tweets_to_label.xlsx
+++ b/Data/labeled_data/tweets_to_label.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="675">
   <si>
     <t xml:space="preserve">Tweet_ID</t>
   </si>
@@ -2003,9 +2003,6 @@
   </si>
   <si>
     <t xml:space="preserve">Realme </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/-1</t>
   </si>
   <si>
     <t xml:space="preserve">tweet_3987</t>
@@ -2261,13 +2258,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N306"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A281" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F298" activeCellId="0" sqref="F298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="89"/>
@@ -8470,8 +8467,8 @@
       <c r="E298" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="F298" s="4" t="s">
-        <v>661</v>
+      <c r="F298" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8479,10 +8476,10 @@
         <v>3986</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C299" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>663</v>
       </c>
       <c r="D299" s="3" t="n">
         <v>1</v>
@@ -8499,10 +8496,10 @@
         <v>3987</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C300" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="D300" s="3" t="n">
         <v>1</v>
@@ -8519,10 +8516,10 @@
         <v>3989</v>
       </c>
       <c r="B301" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C301" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="D301" s="3" t="n">
         <v>1</v>
@@ -8539,10 +8536,10 @@
         <v>3991</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C302" s="5" t="s">
         <v>668</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>669</v>
       </c>
       <c r="D302" s="3" t="n">
         <v>1</v>
@@ -8559,10 +8556,10 @@
         <v>3992</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C303" s="8" t="s">
         <v>670</v>
-      </c>
-      <c r="C303" s="8" t="s">
-        <v>671</v>
       </c>
       <c r="D303" s="3" t="n">
         <v>1</v>
@@ -8579,10 +8576,10 @@
         <v>3998</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>673</v>
       </c>
       <c r="D304" s="3" t="n">
         <v>1</v>
@@ -8599,10 +8596,10 @@
         <v>3999</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>675</v>
       </c>
       <c r="D305" s="3" t="n">
         <v>1</v>

--- a/Data/labeled_data/tweets_to_label.xlsx
+++ b/Data/labeled_data/tweets_to_label.xlsx
@@ -2260,8 +2260,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A281" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F298" activeCellId="0" sqref="F298"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G204" activeCellId="0" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6490,9 +6490,10 @@
       <c r="E204" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G204" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
